--- a/RexImport.xlsx
+++ b/RexImport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="197">
   <si>
     <t xml:space="preserve">Address </t>
   </si>
@@ -931,7 +931,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C87:C91 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:F91 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C87:C91 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D1:F91 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1403,7 +1403,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -3520,13 +3520,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87:C91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="224.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="121.99"/>
@@ -3534,7 +3534,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>193</v>
       </c>
@@ -3544,9 +3544,17 @@
       <c r="C1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>49</v>
       </c>
@@ -3556,8 +3564,17 @@
       <c r="C2" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3584,17 @@
       <c r="C3" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
         <v>57</v>
       </c>
@@ -3578,8 +3604,17 @@
       <c r="C4" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>60</v>
       </c>
@@ -3589,8 +3624,17 @@
       <c r="C5" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3644,17 @@
       <c r="C6" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>66</v>
       </c>
@@ -3611,8 +3664,22 @@
       <c r="C7" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="14"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -3622,8 +3689,17 @@
       <c r="C9" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
@@ -3633,8 +3709,17 @@
       <c r="C10" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -3644,8 +3729,17 @@
       <c r="C11" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
@@ -3655,12 +3749,24 @@
       <c r="C12" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -3670,8 +3776,17 @@
       <c r="C14" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>81</v>
       </c>
@@ -3681,8 +3796,17 @@
       <c r="C15" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>83</v>
       </c>
@@ -3692,12 +3816,24 @@
       <c r="C16" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>85</v>
       </c>
@@ -3707,8 +3843,17 @@
       <c r="C18" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>87</v>
       </c>
@@ -3718,8 +3863,17 @@
       <c r="C19" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>89</v>
       </c>
@@ -3729,8 +3883,17 @@
       <c r="C20" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>91</v>
       </c>
@@ -3740,8 +3903,17 @@
       <c r="C21" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>93</v>
       </c>
@@ -3751,20 +3923,38 @@
       <c r="C22" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>96</v>
       </c>
@@ -3774,8 +3964,17 @@
       <c r="C26" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
@@ -3785,8 +3984,17 @@
       <c r="C27" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
@@ -3796,8 +4004,17 @@
       <c r="C28" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>102</v>
       </c>
@@ -3807,12 +4024,24 @@
       <c r="C29" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>105</v>
       </c>
@@ -3822,8 +4051,17 @@
       <c r="C31" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>107</v>
       </c>
@@ -3833,8 +4071,17 @@
       <c r="C32" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -3844,8 +4091,17 @@
       <c r="C33" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>111</v>
       </c>
@@ -3855,8 +4111,17 @@
       <c r="C34" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>113</v>
       </c>
@@ -3866,12 +4131,24 @@
       <c r="C35" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>116</v>
       </c>
@@ -3881,8 +4158,17 @@
       <c r="C37" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
@@ -3892,8 +4178,17 @@
       <c r="C38" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
@@ -3903,8 +4198,17 @@
       <c r="C39" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
         <v>100</v>
       </c>
@@ -3914,8 +4218,17 @@
       <c r="C40" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
         <v>122</v>
       </c>
@@ -3925,12 +4238,24 @@
       <c r="C41" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>124</v>
       </c>
@@ -3940,8 +4265,17 @@
       <c r="C43" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>126</v>
       </c>
@@ -3951,8 +4285,17 @@
       <c r="C44" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>128</v>
       </c>
@@ -3962,8 +4305,17 @@
       <c r="C45" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>130</v>
       </c>
@@ -3973,8 +4325,17 @@
       <c r="C46" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>132</v>
       </c>
@@ -3984,10 +4345,22 @@
       <c r="C47" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
@@ -3999,6 +4372,15 @@
       <c r="C49" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D49" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
@@ -4010,6 +4392,15 @@
       <c r="C50" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D50" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
@@ -4021,6 +4412,15 @@
       <c r="C51" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D51" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
@@ -4032,6 +4432,15 @@
       <c r="C52" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D52" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
@@ -4043,10 +4452,22 @@
       <c r="C53" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
@@ -4058,6 +4479,15 @@
       <c r="C55" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D55" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
@@ -4069,6 +4499,15 @@
       <c r="C56" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D56" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
@@ -4080,6 +4519,15 @@
       <c r="C57" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D57" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
@@ -4091,6 +4539,15 @@
       <c r="C58" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D58" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
@@ -4102,12 +4559,24 @@
       <c r="C59" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>156</v>
       </c>
@@ -4117,8 +4586,17 @@
       <c r="C61" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
@@ -4128,8 +4606,17 @@
       <c r="C62" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
         <v>158</v>
       </c>
@@ -4139,8 +4626,17 @@
       <c r="C63" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
         <v>160</v>
       </c>
@@ -4150,8 +4646,17 @@
       <c r="C64" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>162</v>
       </c>
@@ -4161,10 +4666,22 @@
       <c r="C65" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
@@ -4176,6 +4693,15 @@
       <c r="C67" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D67" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
@@ -4187,6 +4713,15 @@
       <c r="C68" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D68" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
@@ -4198,6 +4733,15 @@
       <c r="C69" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D69" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
@@ -4209,6 +4753,15 @@
       <c r="C70" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D70" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
@@ -4220,10 +4773,22 @@
       <c r="C71" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
@@ -4235,6 +4800,15 @@
       <c r="C73" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D73" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
@@ -4246,6 +4820,15 @@
       <c r="C74" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D74" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E74" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
@@ -4257,6 +4840,15 @@
       <c r="C75" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D75" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
@@ -4268,6 +4860,15 @@
       <c r="C76" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D76" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
@@ -4279,18 +4880,36 @@
       <c r="C77" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
@@ -4302,6 +4921,15 @@
       <c r="C81" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D81" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E81" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
@@ -4313,6 +4941,15 @@
       <c r="C82" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D82" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E82" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
@@ -4324,6 +4961,15 @@
       <c r="C83" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D83" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E83" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
@@ -4335,6 +4981,15 @@
       <c r="C84" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D84" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
@@ -4346,10 +5001,22 @@
       <c r="C85" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
@@ -4361,6 +5028,15 @@
       <c r="C87" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D87" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
@@ -4372,6 +5048,15 @@
       <c r="C88" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D88" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
@@ -4383,6 +5068,15 @@
       <c r="C89" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D89" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
@@ -4394,6 +5088,15 @@
       <c r="C90" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D90" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" s="14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
@@ -4405,81 +5108,90 @@
       <c r="C91" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="D91" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C3" r:id="rId2" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C4" r:id="rId3" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C5" r:id="rId4" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C6" r:id="rId5" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C7" r:id="rId6" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C9" r:id="rId7" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C10" r:id="rId8" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C11" r:id="rId9" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C12" r:id="rId10" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C14" r:id="rId11" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C15" r:id="rId12" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C16" r:id="rId13" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C18" r:id="rId14" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C19" r:id="rId15" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C20" r:id="rId16" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C21" r:id="rId17" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C22" r:id="rId18" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C26" r:id="rId19" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C27" r:id="rId20" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C28" r:id="rId21" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C29" r:id="rId22" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C31" r:id="rId23" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C32" r:id="rId24" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C33" r:id="rId25" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C34" r:id="rId26" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C35" r:id="rId27" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C37" r:id="rId28" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C38" r:id="rId29" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C39" r:id="rId30" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C40" r:id="rId31" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C41" r:id="rId32" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C43" r:id="rId33" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C44" r:id="rId34" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C45" r:id="rId35" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C46" r:id="rId36" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C47" r:id="rId37" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C49" r:id="rId38" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C50" r:id="rId39" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C51" r:id="rId40" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C52" r:id="rId41" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C53" r:id="rId42" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C55" r:id="rId43" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C56" r:id="rId44" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C57" r:id="rId45" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C58" r:id="rId46" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C59" r:id="rId47" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C61" r:id="rId48" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C62" r:id="rId49" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C63" r:id="rId50" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C64" r:id="rId51" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C65" r:id="rId52" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C67" r:id="rId53" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C68" r:id="rId54" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C69" r:id="rId55" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C70" r:id="rId56" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C71" r:id="rId57" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C73" r:id="rId58" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C74" r:id="rId59" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C75" r:id="rId60" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C76" r:id="rId61" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C77" r:id="rId62" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C81" r:id="rId63" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C82" r:id="rId64" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C83" r:id="rId65" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C84" r:id="rId66" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C85" r:id="rId67" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C87" r:id="rId68" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C88" r:id="rId69" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C89" r:id="rId70" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C90" r:id="rId71" display="quinn@avnu.com.au"/>
-    <hyperlink ref="C91" r:id="rId72" display="quinn@avnu.com.au"/>
+    <hyperlink ref="C2" r:id="rId1" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C3" r:id="rId2" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C4" r:id="rId3" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C5" r:id="rId4" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C6" r:id="rId5" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C7" r:id="rId6" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C9" r:id="rId7" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C10" r:id="rId8" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C11" r:id="rId9" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C12" r:id="rId10" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C14" r:id="rId11" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C15" r:id="rId12" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C16" r:id="rId13" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C18" r:id="rId14" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C19" r:id="rId15" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C20" r:id="rId16" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C21" r:id="rId17" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C22" r:id="rId18" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C26" r:id="rId19" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C27" r:id="rId20" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C28" r:id="rId21" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C29" r:id="rId22" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C31" r:id="rId23" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C32" r:id="rId24" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C33" r:id="rId25" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C34" r:id="rId26" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C35" r:id="rId27" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C37" r:id="rId28" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C38" r:id="rId29" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C39" r:id="rId30" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C40" r:id="rId31" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C41" r:id="rId32" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C43" r:id="rId33" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C44" r:id="rId34" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C45" r:id="rId35" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C46" r:id="rId36" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C47" r:id="rId37" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C49" r:id="rId38" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C50" r:id="rId39" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C51" r:id="rId40" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C52" r:id="rId41" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C53" r:id="rId42" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C55" r:id="rId43" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C56" r:id="rId44" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C57" r:id="rId45" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C58" r:id="rId46" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C59" r:id="rId47" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C61" r:id="rId48" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C62" r:id="rId49" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C63" r:id="rId50" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C64" r:id="rId51" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C65" r:id="rId52" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C67" r:id="rId53" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C68" r:id="rId54" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C69" r:id="rId55" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C70" r:id="rId56" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C71" r:id="rId57" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C73" r:id="rId58" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C74" r:id="rId59" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C75" r:id="rId60" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C76" r:id="rId61" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C77" r:id="rId62" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C81" r:id="rId63" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C82" r:id="rId64" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C83" r:id="rId65" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C84" r:id="rId66" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C85" r:id="rId67" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C87" r:id="rId68" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C88" r:id="rId69" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C89" r:id="rId70" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C90" r:id="rId71" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
+    <hyperlink ref="C91" r:id="rId72" display="{&quot;primaryAgent&quot;: &quot;quinn@avnu.com.au&quot;}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
